--- a/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49489858-4245-405D-A306-87D8CBFDA322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AF0FB0-7B14-4D2D-A428-508BED1D3075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66100603-94AA-4DD8-8AA4-BEC1B46CF466}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8A03CCD-F9DB-42F4-8605-979D26ADBBA3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -74,946 +74,958 @@
     <t>7,72%</t>
   </si>
   <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>54,89%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>60,35%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>1,93%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>2,34%</t>
   </si>
   <si>
     <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1428,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA68E6FB-954B-4242-8D0E-B74AFA7C93E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1381D13-97A7-4AE1-B6E3-0144842B2697}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1914,10 +1926,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -1926,13 +1938,13 @@
         <v>26759</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -1941,10 +1953,10 @@
         <v>57792</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>75</v>
@@ -2252,10 +2264,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,7 +2323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2323,13 +2335,13 @@
         <v>191005</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -2338,13 +2350,13 @@
         <v>200721</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>418</v>
@@ -2353,13 +2365,13 @@
         <v>391726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2386,13 @@
         <v>88036</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -2389,13 +2401,13 @@
         <v>156760</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>309</v>
@@ -2404,13 +2416,13 @@
         <v>244796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2437,13 @@
         <v>24084</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2440,13 +2452,13 @@
         <v>37799</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -2455,10 +2467,10 @@
         <v>61882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>146</v>
@@ -2497,7 +2509,7 @@
         <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -2506,13 +2518,13 @@
         <v>23390</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,7 +2580,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2580,13 +2592,13 @@
         <v>30727</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -2595,13 +2607,13 @@
         <v>22226</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -2610,13 +2622,13 @@
         <v>52954</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,13 +2643,13 @@
         <v>111355</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -2646,13 +2658,13 @@
         <v>116738</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>400</v>
@@ -2661,13 +2673,13 @@
         <v>228093</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2694,13 @@
         <v>52081</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
@@ -2697,13 +2709,13 @@
         <v>88773</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -2712,13 +2724,13 @@
         <v>140853</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2745,13 @@
         <v>1265</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2748,13 +2760,13 @@
         <v>2842</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2763,13 +2775,13 @@
         <v>4107</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2825,7 +2837,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2837,13 +2849,13 @@
         <v>123334</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
@@ -2852,13 +2864,13 @@
         <v>128056</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>51</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -2867,13 +2879,13 @@
         <v>251390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,13 +2900,13 @@
         <v>99895</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
@@ -2903,13 +2915,13 @@
         <v>89710</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>307</v>
@@ -2918,13 +2930,13 @@
         <v>189605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2951,13 @@
         <v>40870</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H31" s="7">
         <v>93</v>
@@ -2954,13 +2966,13 @@
         <v>45124</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M31" s="7">
         <v>158</v>
@@ -2969,13 +2981,13 @@
         <v>85994</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3002,13 @@
         <v>13124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3005,13 +3017,13 @@
         <v>12732</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -3020,13 +3032,13 @@
         <v>25856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3094,13 +3106,13 @@
         <v>278056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>354</v>
@@ -3109,13 +3121,13 @@
         <v>370211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>608</v>
@@ -3124,13 +3136,13 @@
         <v>648268</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3157,13 @@
         <v>255648</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
         <v>446</v>
@@ -3160,13 +3172,13 @@
         <v>317456</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
         <v>704</v>
@@ -3175,13 +3187,13 @@
         <v>573104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,13 +3208,13 @@
         <v>72848</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H36" s="7">
         <v>116</v>
@@ -3211,13 +3223,13 @@
         <v>84221</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M36" s="7">
         <v>185</v>
@@ -3226,13 +3238,13 @@
         <v>157069</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3259,13 @@
         <v>19326</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -3262,13 +3274,13 @@
         <v>31418</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>58</v>
@@ -3277,13 +3289,13 @@
         <v>50744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3307,7 @@
         <v>597</v>
       </c>
       <c r="D38" s="7">
-        <v>625878</v>
+        <v>625877</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>48</v>
@@ -3339,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3351,13 +3363,13 @@
         <v>394147</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H39" s="7">
         <v>344</v>
@@ -3366,13 +3378,13 @@
         <v>316315</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>632</v>
@@ -3381,13 +3393,13 @@
         <v>710462</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3414,13 @@
         <v>332389</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>479</v>
@@ -3417,13 +3429,13 @@
         <v>365858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>103</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>810</v>
@@ -3432,13 +3444,13 @@
         <v>698247</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3465,13 @@
         <v>115887</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>216</v>
@@ -3468,13 +3480,13 @@
         <v>169488</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>344</v>
@@ -3483,13 +3495,13 @@
         <v>285375</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,13 +3516,13 @@
         <v>17005</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3519,13 +3531,13 @@
         <v>16773</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>38</v>
@@ -3534,13 +3546,13 @@
         <v>33778</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3620,13 @@
         <v>1489171</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>1669</v>
@@ -3623,13 +3635,13 @@
         <v>1425807</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>2930</v>
@@ -3638,13 +3650,13 @@
         <v>2914978</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3671,13 @@
         <v>1393789</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>2526</v>
@@ -3674,13 +3686,13 @@
         <v>1671044</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>236</v>
+        <v>309</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>4053</v>
@@ -3689,13 +3701,13 @@
         <v>3064833</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3722,13 @@
         <v>408612</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>939</v>
@@ -3725,13 +3737,13 @@
         <v>563602</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M46" s="7">
         <v>1425</v>
@@ -3740,13 +3752,13 @@
         <v>972214</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3773,13 @@
         <v>78376</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H47" s="7">
         <v>176</v>
@@ -3776,13 +3788,13 @@
         <v>116725</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>262</v>
@@ -3791,13 +3803,13 @@
         <v>195101</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77AF0FB0-7B14-4D2D-A428-508BED1D3075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8F89E3-A6BA-4E89-A308-2547E672E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8A03CCD-F9DB-42F4-8605-979D26ADBBA3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D48614CE-D79C-405F-A0E6-4E115950B9A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1440,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1381D13-97A7-4AE1-B6E3-0144842B2697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F6C27B-9A42-42AF-B6A7-7EFFECA7B033}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC8F89E3-A6BA-4E89-A308-2547E672E776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{612A118C-84B7-4C4B-9669-73138D50C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D48614CE-D79C-405F-A0E6-4E115950B9A6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC74C35E-6277-4068-8176-957A42DE1D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -74,88 +74,88 @@
     <t>7,72%</t>
   </si>
   <si>
-    <t>4,53%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
   </si>
   <si>
     <t>13,1%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -173,13 +173,13 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,841 +191,829 @@
     <t>57,06%</t>
   </si>
   <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
   </si>
   <si>
     <t>44,21%</t>
   </si>
   <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
     <t>40,18%</t>
   </si>
   <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>13,32%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>60,35%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>15,98%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1440,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F6C27B-9A42-42AF-B6A7-7EFFECA7B033}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB2F72-055C-4306-9FC8-A1EE01CEAE53}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1926,10 +1914,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
@@ -1938,13 +1926,13 @@
         <v>26759</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
@@ -1953,10 +1941,10 @@
         <v>57792</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>75</v>
@@ -2264,10 +2252,10 @@
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,7 +2311,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2335,13 +2323,13 @@
         <v>191005</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
@@ -2350,13 +2338,13 @@
         <v>200721</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>418</v>
@@ -2365,13 +2353,13 @@
         <v>391726</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2374,13 @@
         <v>88036</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
@@ -2401,13 +2389,13 @@
         <v>156760</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>309</v>
@@ -2416,13 +2404,13 @@
         <v>244796</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2425,13 @@
         <v>24084</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
@@ -2452,13 +2440,13 @@
         <v>37799</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -2467,10 +2455,10 @@
         <v>61882</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>146</v>
@@ -2509,7 +2497,7 @@
         <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -2518,13 +2506,13 @@
         <v>23390</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2568,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2580,13 @@
         <v>30727</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -2607,13 +2595,13 @@
         <v>22226</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -2622,13 +2610,13 @@
         <v>52954</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2631,13 @@
         <v>111355</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
@@ -2658,13 +2646,13 @@
         <v>116738</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>400</v>
@@ -2673,13 +2661,13 @@
         <v>228093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,13 +2682,13 @@
         <v>52081</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
@@ -2709,13 +2697,13 @@
         <v>88773</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
@@ -2724,13 +2712,13 @@
         <v>140853</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2733,13 @@
         <v>1265</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -2760,13 +2748,13 @@
         <v>2842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
@@ -2775,13 +2763,13 @@
         <v>4107</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2825,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2837,13 @@
         <v>123334</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>103</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
@@ -2864,13 +2852,13 @@
         <v>128056</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>51</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
@@ -2879,13 +2867,13 @@
         <v>251390</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2888,13 @@
         <v>99895</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
@@ -2915,13 +2903,13 @@
         <v>89710</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>307</v>
@@ -2930,13 +2918,13 @@
         <v>189605</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,13 +2939,13 @@
         <v>40870</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
         <v>93</v>
@@ -2966,13 +2954,13 @@
         <v>45124</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
         <v>158</v>
@@ -2981,13 +2969,13 @@
         <v>85994</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +2990,13 @@
         <v>13124</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -3017,13 +3005,13 @@
         <v>12732</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
@@ -3032,13 +3020,13 @@
         <v>25856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3094,7 +3082,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3106,13 +3094,13 @@
         <v>278056</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
         <v>354</v>
@@ -3121,13 +3109,13 @@
         <v>370211</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
         <v>608</v>
@@ -3136,13 +3124,13 @@
         <v>648268</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,13 +3145,13 @@
         <v>255648</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>446</v>
@@ -3172,13 +3160,13 @@
         <v>317456</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>238</v>
+        <v>57</v>
       </c>
       <c r="M35" s="7">
         <v>704</v>
@@ -3187,13 +3175,13 @@
         <v>573104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,13 +3196,13 @@
         <v>72848</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
         <v>116</v>
@@ -3223,13 +3211,13 @@
         <v>84221</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
         <v>185</v>
@@ -3238,13 +3226,13 @@
         <v>157069</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>37</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3247,13 @@
         <v>19326</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
@@ -3274,13 +3262,13 @@
         <v>31418</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>58</v>
@@ -3289,13 +3277,13 @@
         <v>50744</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>258</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3307,7 +3295,7 @@
         <v>597</v>
       </c>
       <c r="D38" s="7">
-        <v>625877</v>
+        <v>625878</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>48</v>
@@ -3351,7 +3339,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3363,13 +3351,13 @@
         <v>394147</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>344</v>
@@ -3378,13 +3366,13 @@
         <v>316315</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>632</v>
@@ -3393,13 +3381,13 @@
         <v>710462</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3402,13 @@
         <v>332389</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>479</v>
@@ -3429,13 +3417,13 @@
         <v>365858</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>273</v>
+        <v>103</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>810</v>
@@ -3444,13 +3432,13 @@
         <v>698247</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3453,13 @@
         <v>115887</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>216</v>
@@ -3480,13 +3468,13 @@
         <v>169488</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M41" s="7">
         <v>344</v>
@@ -3495,13 +3483,13 @@
         <v>285375</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3516,13 +3504,13 @@
         <v>17005</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>147</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -3531,13 +3519,13 @@
         <v>16773</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>151</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="M42" s="7">
         <v>38</v>
@@ -3546,13 +3534,13 @@
         <v>33778</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="P42" s="7" t="s">
+      <c r="Q42" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3608,13 @@
         <v>1489171</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>1669</v>
@@ -3635,13 +3623,13 @@
         <v>1425807</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>2930</v>
@@ -3650,13 +3638,13 @@
         <v>2914978</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="P44" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3671,13 +3659,13 @@
         <v>1393789</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H45" s="7">
         <v>2526</v>
@@ -3686,13 +3674,13 @@
         <v>1671044</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M45" s="7">
         <v>4053</v>
@@ -3701,13 +3689,13 @@
         <v>3064833</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3710,13 @@
         <v>408612</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>316</v>
+        <v>214</v>
       </c>
       <c r="H46" s="7">
         <v>939</v>
@@ -3737,13 +3725,13 @@
         <v>563602</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>1425</v>
@@ -3752,13 +3740,13 @@
         <v>972214</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3761,13 @@
         <v>78376</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>189</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>176</v>
@@ -3788,13 +3776,13 @@
         <v>116725</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M47" s="7">
         <v>262</v>
@@ -3803,13 +3791,13 @@
         <v>195101</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>327</v>
+        <v>187</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3853,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{612A118C-84B7-4C4B-9669-73138D50C984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B43AAA5D-57B9-46F4-9D12-B6A57E373864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC74C35E-6277-4068-8176-957A42DE1D8F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C4AC432F-955C-47FE-964E-AE7183AD0860}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="331">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -71,946 +71,958 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>Buena parte del tiempo</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>Buena parte del tiempo</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -1428,7 +1440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAB2F72-055C-4306-9FC8-A1EE01CEAE53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D40971-CC49-41BE-B064-0D06FA77E4BB}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1549,7 +1561,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>20026</v>
+        <v>28142</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1564,7 +1576,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>4441</v>
+        <v>4971</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1579,7 +1591,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>24466</v>
+        <v>33113</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1600,7 +1612,7 @@
         <v>270</v>
       </c>
       <c r="D5" s="7">
-        <v>213851</v>
+        <v>253398</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1615,7 +1627,7 @@
         <v>432</v>
       </c>
       <c r="I5" s="7">
-        <v>222630</v>
+        <v>238970</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1630,7 +1642,7 @@
         <v>702</v>
       </c>
       <c r="N5" s="7">
-        <v>436479</v>
+        <v>492368</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1651,7 +1663,7 @@
         <v>37</v>
       </c>
       <c r="D6" s="7">
-        <v>25358</v>
+        <v>28621</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1666,7 +1678,7 @@
         <v>96</v>
       </c>
       <c r="I6" s="7">
-        <v>43801</v>
+        <v>45157</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1681,7 +1693,7 @@
         <v>133</v>
       </c>
       <c r="N6" s="7">
-        <v>69159</v>
+        <v>73778</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1717,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1732,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>46</v>
@@ -1753,7 +1765,7 @@
         <v>330</v>
       </c>
       <c r="D8" s="7">
-        <v>259234</v>
+        <v>310161</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -1768,7 +1780,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1783,7 +1795,7 @@
         <v>868</v>
       </c>
       <c r="N8" s="7">
-        <v>530636</v>
+        <v>599796</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1806,7 +1818,7 @@
         <v>210</v>
       </c>
       <c r="D9" s="7">
-        <v>296332</v>
+        <v>298648</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1821,7 +1833,7 @@
         <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>243901</v>
+        <v>226446</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1836,7 +1848,7 @@
         <v>514</v>
       </c>
       <c r="N9" s="7">
-        <v>540234</v>
+        <v>525093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1857,7 +1869,7 @@
         <v>146</v>
       </c>
       <c r="D10" s="7">
-        <v>187728</v>
+        <v>184576</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1872,7 +1884,7 @@
         <v>349</v>
       </c>
       <c r="I10" s="7">
-        <v>262977</v>
+        <v>244499</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1887,7 +1899,7 @@
         <v>495</v>
       </c>
       <c r="N10" s="7">
-        <v>450704</v>
+        <v>429075</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1908,46 +1920,46 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>31033</v>
+        <v>31154</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>26759</v>
+        <v>24822</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>60</v>
       </c>
       <c r="N11" s="7">
-        <v>57792</v>
+        <v>55976</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,10 +1971,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>4204</v>
+        <v>4012</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>77</v>
@@ -1974,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>18039</v>
+        <v>16790</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>79</v>
@@ -1989,7 +2001,7 @@
         <v>27</v>
       </c>
       <c r="N12" s="7">
-        <v>22243</v>
+        <v>20802</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>82</v>
@@ -2010,7 +2022,7 @@
         <v>382</v>
       </c>
       <c r="D13" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -2025,7 +2037,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="7">
-        <v>551676</v>
+        <v>512556</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -2040,7 +2052,7 @@
         <v>1096</v>
       </c>
       <c r="N13" s="7">
-        <v>1070973</v>
+        <v>1030946</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -2063,7 +2075,7 @@
         <v>156</v>
       </c>
       <c r="D14" s="7">
-        <v>155543</v>
+        <v>154657</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>86</v>
@@ -2078,7 +2090,7 @@
         <v>178</v>
       </c>
       <c r="I14" s="7">
-        <v>139935</v>
+        <v>131462</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>89</v>
@@ -2093,7 +2105,7 @@
         <v>334</v>
       </c>
       <c r="N14" s="7">
-        <v>295478</v>
+        <v>286119</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>92</v>
@@ -2114,7 +2126,7 @@
         <v>126</v>
       </c>
       <c r="D15" s="7">
-        <v>104888</v>
+        <v>101610</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>95</v>
@@ -2129,7 +2141,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="7">
-        <v>138915</v>
+        <v>130074</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>98</v>
@@ -2144,7 +2156,7 @@
         <v>326</v>
       </c>
       <c r="N15" s="7">
-        <v>243803</v>
+        <v>231684</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>101</v>
@@ -2165,7 +2177,7 @@
         <v>59</v>
       </c>
       <c r="D16" s="7">
-        <v>46452</v>
+        <v>44961</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>104</v>
@@ -2180,7 +2192,7 @@
         <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>67637</v>
+        <v>62899</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>107</v>
@@ -2195,7 +2207,7 @@
         <v>174</v>
       </c>
       <c r="N16" s="7">
-        <v>114089</v>
+        <v>107860</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>110</v>
@@ -2216,7 +2228,7 @@
         <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>13168</v>
+        <v>12629</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>113</v>
@@ -2231,7 +2243,7 @@
         <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>21284</v>
+        <v>19575</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>116</v>
@@ -2246,16 +2258,16 @@
         <v>53</v>
       </c>
       <c r="N17" s="7">
-        <v>34452</v>
+        <v>32204</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2279,7 @@
         <v>358</v>
       </c>
       <c r="D18" s="7">
-        <v>320051</v>
+        <v>313857</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -2282,7 +2294,7 @@
         <v>529</v>
       </c>
       <c r="I18" s="7">
-        <v>367772</v>
+        <v>344010</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -2297,7 +2309,7 @@
         <v>887</v>
       </c>
       <c r="N18" s="7">
-        <v>687823</v>
+        <v>657867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2311,7 +2323,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2320,46 +2332,46 @@
         <v>154</v>
       </c>
       <c r="D19" s="7">
-        <v>191005</v>
+        <v>186573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>264</v>
       </c>
       <c r="I19" s="7">
-        <v>200721</v>
+        <v>185039</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>418</v>
       </c>
       <c r="N19" s="7">
-        <v>391726</v>
+        <v>371613</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,46 +2383,46 @@
         <v>97</v>
       </c>
       <c r="D20" s="7">
-        <v>88036</v>
+        <v>84671</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>212</v>
       </c>
       <c r="I20" s="7">
-        <v>156760</v>
+        <v>224657</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>309</v>
       </c>
       <c r="N20" s="7">
-        <v>244796</v>
+        <v>309329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,46 +2434,46 @@
         <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>24084</v>
+        <v>23015</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>64</v>
       </c>
       <c r="I21" s="7">
-        <v>37799</v>
+        <v>35129</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
       </c>
       <c r="N21" s="7">
-        <v>61882</v>
+        <v>58143</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,46 +2485,46 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>10284</v>
+        <v>9835</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
       </c>
       <c r="I22" s="7">
-        <v>13106</v>
+        <v>12019</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
       </c>
       <c r="N22" s="7">
-        <v>23390</v>
+        <v>21854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,7 +2536,7 @@
         <v>283</v>
       </c>
       <c r="D23" s="7">
-        <v>313408</v>
+        <v>304094</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -2539,7 +2551,7 @@
         <v>560</v>
       </c>
       <c r="I23" s="7">
-        <v>408387</v>
+        <v>456844</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -2554,7 +2566,7 @@
         <v>843</v>
       </c>
       <c r="N23" s="7">
-        <v>721795</v>
+        <v>760939</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -2568,7 +2580,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2577,46 +2589,46 @@
         <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>30727</v>
+        <v>27328</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
       </c>
       <c r="I24" s="7">
-        <v>22226</v>
+        <v>19295</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
       </c>
       <c r="N24" s="7">
-        <v>52954</v>
+        <v>46623</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,46 +2640,46 @@
         <v>156</v>
       </c>
       <c r="D25" s="7">
-        <v>111355</v>
+        <v>101391</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>244</v>
       </c>
       <c r="I25" s="7">
-        <v>116738</v>
+        <v>104900</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>400</v>
       </c>
       <c r="N25" s="7">
-        <v>228093</v>
+        <v>206291</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2679,46 +2691,46 @@
         <v>85</v>
       </c>
       <c r="D26" s="7">
-        <v>52081</v>
+        <v>47708</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>201</v>
       </c>
       <c r="I26" s="7">
-        <v>88773</v>
+        <v>80691</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M26" s="7">
         <v>286</v>
       </c>
       <c r="N26" s="7">
-        <v>140853</v>
+        <v>128399</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,46 +2742,46 @@
         <v>2</v>
       </c>
       <c r="D27" s="7">
-        <v>1265</v>
+        <v>1166</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
       </c>
       <c r="I27" s="7">
-        <v>2842</v>
+        <v>2575</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>8</v>
       </c>
       <c r="N27" s="7">
-        <v>4107</v>
+        <v>3741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2793,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="7">
-        <v>195429</v>
+        <v>177593</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -2796,7 +2808,7 @@
         <v>489</v>
       </c>
       <c r="I28" s="7">
-        <v>230578</v>
+        <v>207461</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -2811,7 +2823,7 @@
         <v>766</v>
       </c>
       <c r="N28" s="7">
-        <v>426007</v>
+        <v>385054</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2825,7 +2837,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2834,46 +2846,46 @@
         <v>142</v>
       </c>
       <c r="D29" s="7">
-        <v>123334</v>
+        <v>121048</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>178</v>
       </c>
       <c r="I29" s="7">
-        <v>128056</v>
+        <v>119481</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>320</v>
       </c>
       <c r="N29" s="7">
-        <v>251390</v>
+        <v>240529</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,46 +2897,46 @@
         <v>143</v>
       </c>
       <c r="D30" s="7">
-        <v>99895</v>
+        <v>96423</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>164</v>
       </c>
       <c r="I30" s="7">
-        <v>89710</v>
+        <v>83432</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>307</v>
       </c>
       <c r="N30" s="7">
-        <v>189605</v>
+        <v>179856</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2936,46 +2948,46 @@
         <v>65</v>
       </c>
       <c r="D31" s="7">
-        <v>40870</v>
+        <v>39654</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>93</v>
       </c>
       <c r="I31" s="7">
-        <v>45124</v>
+        <v>42291</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>158</v>
       </c>
       <c r="N31" s="7">
-        <v>85994</v>
+        <v>81945</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,46 +2999,46 @@
         <v>21</v>
       </c>
       <c r="D32" s="7">
-        <v>13124</v>
+        <v>12510</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
       </c>
       <c r="I32" s="7">
-        <v>12732</v>
+        <v>11852</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>46</v>
       </c>
       <c r="N32" s="7">
-        <v>25856</v>
+        <v>24362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>227</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,7 +3050,7 @@
         <v>371</v>
       </c>
       <c r="D33" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -3053,7 +3065,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -3068,7 +3080,7 @@
         <v>831</v>
       </c>
       <c r="N33" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -3082,7 +3094,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3091,46 +3103,46 @@
         <v>254</v>
       </c>
       <c r="D34" s="7">
-        <v>278056</v>
+        <v>277690</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H34" s="7">
         <v>354</v>
       </c>
       <c r="I34" s="7">
-        <v>370211</v>
+        <v>446273</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M34" s="7">
         <v>608</v>
       </c>
       <c r="N34" s="7">
-        <v>648268</v>
+        <v>723963</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,46 +3154,46 @@
         <v>258</v>
       </c>
       <c r="D35" s="7">
-        <v>255648</v>
+        <v>250733</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>446</v>
       </c>
       <c r="I35" s="7">
-        <v>317456</v>
+        <v>295335</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="M35" s="7">
         <v>704</v>
       </c>
       <c r="N35" s="7">
-        <v>573104</v>
+        <v>546068</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,46 +3205,46 @@
         <v>69</v>
       </c>
       <c r="D36" s="7">
-        <v>72848</v>
+        <v>70621</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H36" s="7">
         <v>116</v>
       </c>
       <c r="I36" s="7">
-        <v>84221</v>
+        <v>77558</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>185</v>
       </c>
       <c r="N36" s="7">
-        <v>157069</v>
+        <v>148179</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,46 +3256,46 @@
         <v>16</v>
       </c>
       <c r="D37" s="7">
-        <v>19326</v>
+        <v>23444</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H37" s="7">
         <v>42</v>
       </c>
       <c r="I37" s="7">
-        <v>31418</v>
+        <v>29252</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M37" s="7">
         <v>58</v>
       </c>
       <c r="N37" s="7">
-        <v>50744</v>
+        <v>52697</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>81</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,7 +3307,7 @@
         <v>597</v>
       </c>
       <c r="D38" s="7">
-        <v>625878</v>
+        <v>622488</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>48</v>
@@ -3310,7 +3322,7 @@
         <v>958</v>
       </c>
       <c r="I38" s="7">
-        <v>803306</v>
+        <v>848419</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>48</v>
@@ -3325,7 +3337,7 @@
         <v>1555</v>
       </c>
       <c r="N38" s="7">
-        <v>1429184</v>
+        <v>1470907</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>48</v>
@@ -3339,7 +3351,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3348,46 +3360,46 @@
         <v>288</v>
       </c>
       <c r="D39" s="7">
-        <v>394147</v>
+        <v>533202</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H39" s="7">
         <v>344</v>
       </c>
       <c r="I39" s="7">
-        <v>316315</v>
+        <v>259129</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M39" s="7">
         <v>632</v>
       </c>
       <c r="N39" s="7">
-        <v>710462</v>
+        <v>792332</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,46 +3411,46 @@
         <v>331</v>
       </c>
       <c r="D40" s="7">
-        <v>332389</v>
+        <v>282104</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H40" s="7">
         <v>479</v>
       </c>
       <c r="I40" s="7">
-        <v>365858</v>
+        <v>304481</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="M40" s="7">
         <v>810</v>
       </c>
       <c r="N40" s="7">
-        <v>698247</v>
+        <v>586585</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,46 +3462,46 @@
         <v>128</v>
       </c>
       <c r="D41" s="7">
-        <v>115887</v>
+        <v>99045</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H41" s="7">
         <v>216</v>
       </c>
       <c r="I41" s="7">
-        <v>169488</v>
+        <v>140105</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M41" s="7">
         <v>344</v>
       </c>
       <c r="N41" s="7">
-        <v>285375</v>
+        <v>239150</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,46 +3513,46 @@
         <v>15</v>
       </c>
       <c r="D42" s="7">
-        <v>17005</v>
+        <v>14369</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>290</v>
+        <v>47</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>147</v>
+        <v>295</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
       </c>
       <c r="I42" s="7">
-        <v>16773</v>
+        <v>14016</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="M42" s="7">
         <v>38</v>
       </c>
       <c r="N42" s="7">
-        <v>33778</v>
+        <v>28386</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>292</v>
+        <v>14</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3564,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>48</v>
@@ -3567,7 +3579,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>48</v>
@@ -3582,7 +3594,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>48</v>
@@ -3605,46 +3617,46 @@
         <v>1261</v>
       </c>
       <c r="D44" s="7">
-        <v>1489171</v>
+        <v>1627288</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>1669</v>
       </c>
       <c r="I44" s="7">
-        <v>1425807</v>
+        <v>1392096</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="M44" s="7">
         <v>2930</v>
       </c>
       <c r="N44" s="7">
-        <v>2914978</v>
+        <v>3019384</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>53</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,46 +3668,46 @@
         <v>1527</v>
       </c>
       <c r="D45" s="7">
-        <v>1393789</v>
+        <v>1354907</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H45" s="7">
         <v>2526</v>
       </c>
       <c r="I45" s="7">
-        <v>1671044</v>
+        <v>1626348</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M45" s="7">
         <v>4053</v>
       </c>
       <c r="N45" s="7">
-        <v>3064833</v>
+        <v>2981254</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,46 +3719,46 @@
         <v>486</v>
       </c>
       <c r="D46" s="7">
-        <v>408612</v>
+        <v>384778</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>214</v>
+        <v>316</v>
       </c>
       <c r="H46" s="7">
         <v>939</v>
       </c>
       <c r="I46" s="7">
-        <v>563602</v>
+        <v>508651</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M46" s="7">
         <v>1425</v>
       </c>
       <c r="N46" s="7">
-        <v>972214</v>
+        <v>893429</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,46 +3770,46 @@
         <v>86</v>
       </c>
       <c r="D47" s="7">
-        <v>78376</v>
+        <v>77966</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H47" s="7">
         <v>176</v>
       </c>
       <c r="I47" s="7">
-        <v>116725</v>
+        <v>106617</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>254</v>
+        <v>324</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M47" s="7">
         <v>262</v>
       </c>
       <c r="N47" s="7">
-        <v>195101</v>
+        <v>184584</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,7 +3821,7 @@
         <v>3360</v>
       </c>
       <c r="D48" s="7">
-        <v>3369948</v>
+        <v>3444939</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>48</v>
@@ -3824,7 +3836,7 @@
         <v>5310</v>
       </c>
       <c r="I48" s="7">
-        <v>3777178</v>
+        <v>3633712</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>48</v>
@@ -3839,7 +3851,7 @@
         <v>8670</v>
       </c>
       <c r="N48" s="7">
-        <v>7147126</v>
+        <v>7078651</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>48</v>
@@ -3853,7 +3865,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
